--- a/SMT接驳台中控报警模块配置清单.xlsx
+++ b/SMT接驳台中控报警模块配置清单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,14 @@
   </si>
   <si>
     <t>0.5平方多股软线 100米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发过程中需要用到的硬件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一套中控系统硬件配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -210,48 +218,124 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -260,7 +344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,28 +354,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,240 +690,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F23"/>
+  <dimension ref="B1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="25.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:7" ht="25.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B2" s="12"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>15.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <f>E3*F3</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B4" s="13"/>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.66</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G14" si="0">E4*F4</f>
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B5" s="13"/>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
         <v>9</v>
       </c>
-      <c r="F3" s="7">
-        <f>D3*E3</f>
-        <v>139.5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B4" s="6">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B6" s="13"/>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B7" s="13"/>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B8" s="13"/>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>305</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B9" s="13"/>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>18.36</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>18.36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B10" s="13"/>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15">
+        <v>9</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="15">
+        <v>35</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
+        <f>E11*F11</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="24.75" customHeight="1">
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3">
+        <v>170</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <f>E12*F12</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="24.75" customHeight="1" thickBot="1">
+      <c r="B13" s="11"/>
+      <c r="C13" s="9">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
-        <v>3.66</v>
-      </c>
-      <c r="E4" s="2">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:F13" si="0">D4*E4</f>
-        <v>32.94</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B5" s="6">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>432</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B7" s="6">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>100</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>305</v>
-      </c>
-      <c r="E8" s="2">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="0"/>
-        <v>2745</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B9" s="6">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>18.36</v>
-      </c>
-      <c r="E9" s="2">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>165.24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B10" s="6">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="E10" s="2">
-        <v>9</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>23.400000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B11" s="6">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
-        <v>170</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <f>D11*E11</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B12" s="6">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B13" s="8">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="9">
-        <v>35</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="18.75" customHeight="1"/>
-    <row r="15" spans="2:6" ht="18.75" customHeight="1"/>
-    <row r="16" spans="2:6" ht="18.75" customHeight="1"/>
+    <row r="14" spans="2:7" ht="18.75" customHeight="1"/>
+    <row r="15" spans="2:7" ht="18.75" customHeight="1"/>
+    <row r="16" spans="2:7" ht="18.75" customHeight="1"/>
     <row r="17" ht="18.75" customHeight="1"/>
     <row r="18" ht="18.75" customHeight="1"/>
     <row r="19" ht="18.75" customHeight="1"/>
@@ -829,7 +948,12 @@
     <row r="21" ht="18.75" customHeight="1"/>
     <row r="22" ht="18.75" customHeight="1"/>
     <row r="23" ht="18.75" customHeight="1"/>
+    <row r="24" ht="18.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/SMT接驳台中控报警模块配置清单.xlsx
+++ b/SMT接驳台中控报警模块配置清单.xlsx
@@ -375,26 +375,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,7 +700,7 @@
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="47.375" style="1" customWidth="1"/>
     <col min="5" max="7" width="11.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" customWidth="1"/>
@@ -708,7 +708,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="25.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B2" s="12"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G14" si="0">E4*F4</f>
+        <f t="shared" ref="G4:G13" si="0">E4*F4</f>
         <v>3.66</v>
       </c>
     </row>
@@ -881,25 +881,25 @@
     </row>
     <row r="11" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="B11" s="14"/>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>9</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>35</v>
       </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16">
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
         <f>E11*F11</f>
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="24.75" customHeight="1">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="8">
@@ -920,7 +920,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B13" s="11"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="9">
         <v>11</v>
       </c>

--- a/SMT接驳台中控报警模块配置清单.xlsx
+++ b/SMT接驳台中控报警模块配置清单.xlsx
@@ -82,11 +82,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发过程中需要用到的硬件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一套中控系统硬件配置</t>
+    <t>一套中控系统的硬件配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发过程中所需的硬件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,209 +142,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,46 +158,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -690,44 +458,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G24"/>
+  <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="47.375" style="1" customWidth="1"/>
     <col min="5" max="7" width="11.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="25.5" customHeight="1" thickBot="1"/>
+    <row r="1" spans="2:7" ht="9" customHeight="1"/>
     <row r="2" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B2" s="10"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B3" s="13" t="s">
-        <v>17</v>
+    <row r="3" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B3" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -741,13 +509,13 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <f>E3*F3</f>
         <v>15.5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B4" s="13"/>
+    <row r="4" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B4" s="4"/>
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -760,13 +528,13 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <f t="shared" ref="G4:G13" si="0">E4*F4</f>
         <v>3.66</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B5" s="13"/>
+    <row r="5" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B5" s="4"/>
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -779,13 +547,13 @@
       <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B6" s="13"/>
+    <row r="6" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B6" s="4"/>
       <c r="C6" s="2">
         <v>4</v>
       </c>
@@ -798,13 +566,13 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B7" s="13"/>
+    <row r="7" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B7" s="4"/>
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -817,13 +585,13 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B8" s="13"/>
+    <row r="8" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B8" s="4"/>
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -836,13 +604,13 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B9" s="13"/>
+    <row r="9" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B9" s="4"/>
       <c r="C9" s="2">
         <v>7</v>
       </c>
@@ -855,13 +623,13 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>18.36</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B10" s="13"/>
+    <row r="10" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B10" s="4"/>
       <c r="C10" s="2">
         <v>8</v>
       </c>
@@ -874,66 +642,66 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B11" s="14"/>
-      <c r="C11" s="11">
+    <row r="11" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="2">
         <v>35</v>
       </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
         <f>E11*F11</f>
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="24.75" customHeight="1">
-      <c r="B12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="8">
+    <row r="12" spans="2:7" ht="29.25" customHeight="1">
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>170</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
         <f>E12*F12</f>
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B13" s="16"/>
-      <c r="C13" s="9">
+    <row r="13" spans="2:7" ht="29.25" customHeight="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="2">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="2">
         <v>12</v>
       </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -948,7 +716,6 @@
     <row r="21" ht="18.75" customHeight="1"/>
     <row r="22" ht="18.75" customHeight="1"/>
     <row r="23" ht="18.75" customHeight="1"/>
-    <row r="24" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:B11"/>
